--- a/MavenFramework/Clinic.xlsx
+++ b/MavenFramework/Clinic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="697" count="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="492">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2103,6 +2103,12 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -8585,8 +8591,8 @@
       <c r="D2" t="s" s="24">
         <v>543</v>
       </c>
-      <c r="E2" t="s" s="24">
-        <v>544</v>
+      <c r="E2" t="s">
+        <v>695</v>
       </c>
       <c r="F2" t="s">
         <v>695</v>
@@ -8604,8 +8610,8 @@
       <c r="D3" t="s" s="27">
         <v>546</v>
       </c>
-      <c r="E3" t="s" s="27">
-        <v>547</v>
+      <c r="E3" t="s">
+        <v>695</v>
       </c>
       <c r="F3" t="s">
         <v>695</v>
@@ -8623,8 +8629,8 @@
       <c r="D4" t="s" s="27">
         <v>549</v>
       </c>
-      <c r="E4" t="s" s="27">
-        <v>550</v>
+      <c r="E4" t="s">
+        <v>695</v>
       </c>
       <c r="F4" t="s">
         <v>695</v>
@@ -8642,8 +8648,8 @@
       <c r="D5" t="s" s="27">
         <v>552</v>
       </c>
-      <c r="E5" t="s" s="27">
-        <v>553</v>
+      <c r="E5" t="s">
+        <v>695</v>
       </c>
       <c r="F5" t="s">
         <v>695</v>
@@ -8931,8 +8937,8 @@
       <c r="D22" t="s" s="27">
         <v>587</v>
       </c>
-      <c r="E22" t="s" s="27">
-        <v>588</v>
+      <c r="E22" t="s">
+        <v>695</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
@@ -8948,8 +8954,8 @@
       <c r="D23" t="s" s="27">
         <v>589</v>
       </c>
-      <c r="E23" t="s" s="27">
-        <v>590</v>
+      <c r="E23" t="s">
+        <v>695</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
@@ -8965,8 +8971,8 @@
       <c r="D24" t="s" s="27">
         <v>591</v>
       </c>
-      <c r="E24" t="s" s="27">
-        <v>592</v>
+      <c r="E24" t="s">
+        <v>695</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
@@ -8982,8 +8988,8 @@
       <c r="D25" t="s" s="27">
         <v>593</v>
       </c>
-      <c r="E25" t="s" s="27">
-        <v>594</v>
+      <c r="E25" t="s">
+        <v>695</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
@@ -9012,8 +9018,8 @@
       <c r="D27" t="s" s="27">
         <v>554</v>
       </c>
-      <c r="E27" t="s" s="27">
-        <v>555</v>
+      <c r="E27" t="s">
+        <v>695</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
@@ -9029,8 +9035,8 @@
       <c r="D28" t="s" s="27">
         <v>595</v>
       </c>
-      <c r="E28" t="s" s="27">
-        <v>596</v>
+      <c r="E28" t="s">
+        <v>695</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
@@ -9046,8 +9052,8 @@
       <c r="D29" t="s" s="27">
         <v>597</v>
       </c>
-      <c r="E29" t="s" s="27">
-        <v>598</v>
+      <c r="E29" t="s">
+        <v>695</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
@@ -9063,8 +9069,8 @@
       <c r="D30" t="s" s="27">
         <v>599</v>
       </c>
-      <c r="E30" t="s" s="27">
-        <v>600</v>
+      <c r="E30" t="s">
+        <v>695</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -9080,8 +9086,8 @@
       <c r="D31" t="s" s="27">
         <v>601</v>
       </c>
-      <c r="E31" t="s" s="27">
-        <v>602</v>
+      <c r="E31" t="s">
+        <v>695</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
@@ -9127,8 +9133,8 @@
       <c r="D34" t="s" s="27">
         <v>554</v>
       </c>
-      <c r="E34" t="s" s="27">
-        <v>555</v>
+      <c r="E34" t="s">
+        <v>697</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
@@ -9144,8 +9150,8 @@
       <c r="D35" t="s" s="27">
         <v>605</v>
       </c>
-      <c r="E35" t="s" s="27">
-        <v>606</v>
+      <c r="E35" t="s">
+        <v>697</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
@@ -9163,8 +9169,8 @@
       <c r="D36" t="s" s="27">
         <v>608</v>
       </c>
-      <c r="E36" t="s" s="27">
-        <v>609</v>
+      <c r="E36" t="s">
+        <v>697</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
@@ -9182,8 +9188,8 @@
       <c r="D37" t="s" s="27">
         <v>611</v>
       </c>
-      <c r="E37" t="s" s="27">
-        <v>612</v>
+      <c r="E37" t="s">
+        <v>697</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
@@ -9199,8 +9205,8 @@
       <c r="D38" t="s" s="27">
         <v>613</v>
       </c>
-      <c r="E38" t="s" s="27">
-        <v>614</v>
+      <c r="E38" t="s">
+        <v>697</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
@@ -9218,8 +9224,8 @@
       <c r="D39" t="s" s="27">
         <v>616</v>
       </c>
-      <c r="E39" t="s" s="27">
-        <v>612</v>
+      <c r="E39" t="s">
+        <v>697</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
@@ -9235,8 +9241,8 @@
       <c r="D40" t="s" s="27">
         <v>617</v>
       </c>
-      <c r="E40" t="s" s="27">
-        <v>606</v>
+      <c r="E40" t="s">
+        <v>697</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
@@ -9254,8 +9260,8 @@
       <c r="D41" t="s" s="27">
         <v>619</v>
       </c>
-      <c r="E41" t="s" s="27">
-        <v>620</v>
+      <c r="E41" t="s">
+        <v>697</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
@@ -9271,8 +9277,8 @@
       <c r="D42" t="s" s="27">
         <v>613</v>
       </c>
-      <c r="E42" t="s" s="27">
-        <v>614</v>
+      <c r="E42" t="s">
+        <v>698</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
@@ -9290,8 +9296,8 @@
       <c r="D43" t="s" s="27">
         <v>622</v>
       </c>
-      <c r="E43" t="s" s="27">
-        <v>620</v>
+      <c r="E43" t="s">
+        <v>697</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
@@ -9307,8 +9313,8 @@
       <c r="D44" t="s" s="27">
         <v>617</v>
       </c>
-      <c r="E44" t="s" s="27">
-        <v>606</v>
+      <c r="E44" t="s">
+        <v>697</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
@@ -9337,8 +9343,8 @@
       <c r="D46" t="s" s="27">
         <v>554</v>
       </c>
-      <c r="E46" t="s" s="27">
-        <v>555</v>
+      <c r="E46" t="s">
+        <v>697</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
@@ -9354,8 +9360,8 @@
       <c r="D47" t="s" s="27">
         <v>623</v>
       </c>
-      <c r="E47" t="s" s="27">
-        <v>624</v>
+      <c r="E47" t="s">
+        <v>697</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
@@ -9373,8 +9379,8 @@
       <c r="D48" t="s" s="27">
         <v>626</v>
       </c>
-      <c r="E48" t="s" s="27">
-        <v>627</v>
+      <c r="E48" t="s">
+        <v>697</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
@@ -9392,8 +9398,8 @@
       <c r="D49" t="s" s="27">
         <v>611</v>
       </c>
-      <c r="E49" t="s" s="27">
-        <v>629</v>
+      <c r="E49" t="s">
+        <v>697</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
@@ -9409,8 +9415,8 @@
       <c r="D50" t="s" s="27">
         <v>630</v>
       </c>
-      <c r="E50" t="s" s="27">
-        <v>631</v>
+      <c r="E50" t="s">
+        <v>697</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
@@ -9428,8 +9434,8 @@
       <c r="D51" t="s" s="27">
         <v>616</v>
       </c>
-      <c r="E51" t="s" s="27">
-        <v>629</v>
+      <c r="E51" t="s">
+        <v>697</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
@@ -9445,8 +9451,8 @@
       <c r="D52" t="s" s="27">
         <v>617</v>
       </c>
-      <c r="E52" t="s" s="27">
-        <v>624</v>
+      <c r="E52" t="s">
+        <v>697</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
@@ -9464,8 +9470,8 @@
       <c r="D53" t="s" s="27">
         <v>633</v>
       </c>
-      <c r="E53" t="s" s="27">
-        <v>634</v>
+      <c r="E53" t="s">
+        <v>697</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
@@ -9481,8 +9487,8 @@
       <c r="D54" t="s" s="27">
         <v>630</v>
       </c>
-      <c r="E54" t="s" s="27">
-        <v>631</v>
+      <c r="E54" t="s">
+        <v>697</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
@@ -9500,8 +9506,8 @@
       <c r="D55" t="s" s="27">
         <v>622</v>
       </c>
-      <c r="E55" t="s" s="27">
-        <v>635</v>
+      <c r="E55" t="s">
+        <v>697</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
@@ -9517,8 +9523,8 @@
       <c r="D56" t="s" s="27">
         <v>617</v>
       </c>
-      <c r="E56" t="s" s="27">
-        <v>624</v>
+      <c r="E56" t="s">
+        <v>697</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
@@ -9547,8 +9553,8 @@
       <c r="D58" t="s" s="27">
         <v>554</v>
       </c>
-      <c r="E58" t="s" s="27">
-        <v>555</v>
+      <c r="E58" t="s">
+        <v>697</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
@@ -9564,8 +9570,8 @@
       <c r="D59" t="s" s="27">
         <v>636</v>
       </c>
-      <c r="E59" t="s" s="27">
-        <v>637</v>
+      <c r="E59" t="s">
+        <v>697</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
@@ -9583,8 +9589,8 @@
       <c r="D60" t="s" s="27">
         <v>626</v>
       </c>
-      <c r="E60" t="s" s="27">
-        <v>627</v>
+      <c r="E60" t="s">
+        <v>697</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
@@ -9602,8 +9608,8 @@
       <c r="D61" t="s" s="27">
         <v>639</v>
       </c>
-      <c r="E61" t="s" s="27">
-        <v>640</v>
+      <c r="E61" t="s">
+        <v>697</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
@@ -9621,8 +9627,8 @@
       <c r="D62" t="s" s="27">
         <v>642</v>
       </c>
-      <c r="E62" t="s" s="27">
-        <v>643</v>
+      <c r="E62" t="s">
+        <v>697</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
@@ -9640,8 +9646,8 @@
       <c r="D63" t="s" s="27">
         <v>645</v>
       </c>
-      <c r="E63" t="s" s="27">
-        <v>646</v>
+      <c r="E63" t="s">
+        <v>697</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
@@ -9657,8 +9663,8 @@
       <c r="D64" t="s" s="27">
         <v>647</v>
       </c>
-      <c r="E64" t="s" s="27">
-        <v>648</v>
+      <c r="E64" t="s">
+        <v>697</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
@@ -9676,8 +9682,8 @@
       <c r="D65" t="s" s="27">
         <v>645</v>
       </c>
-      <c r="E65" t="s" s="27">
-        <v>646</v>
+      <c r="E65" t="s">
+        <v>697</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
@@ -9723,8 +9729,8 @@
       <c r="D68" t="s" s="27">
         <v>554</v>
       </c>
-      <c r="E68" t="s" s="27">
-        <v>555</v>
+      <c r="E68" t="s">
+        <v>697</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
@@ -9740,8 +9746,8 @@
       <c r="D69" t="s" s="27">
         <v>650</v>
       </c>
-      <c r="E69" t="s" s="27">
-        <v>651</v>
+      <c r="E69" t="s">
+        <v>697</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
@@ -9759,8 +9765,8 @@
       <c r="D70" t="s" s="27">
         <v>653</v>
       </c>
-      <c r="E70" t="s" s="27">
-        <v>654</v>
+      <c r="E70" t="s">
+        <v>697</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
@@ -9776,8 +9782,8 @@
       <c r="D71" t="s" s="27">
         <v>655</v>
       </c>
-      <c r="E71" t="s" s="27">
-        <v>656</v>
+      <c r="E71" t="s">
+        <v>697</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
@@ -9793,8 +9799,8 @@
       <c r="D72" t="s" s="27">
         <v>657</v>
       </c>
-      <c r="E72" t="s" s="27">
-        <v>658</v>
+      <c r="E72" t="s">
+        <v>697</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
@@ -9812,8 +9818,8 @@
       <c r="D73" t="s" s="27">
         <v>653</v>
       </c>
-      <c r="E73" t="s" s="27">
-        <v>654</v>
+      <c r="E73" t="s">
+        <v>697</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
@@ -9829,8 +9835,8 @@
       <c r="D74" t="s" s="27">
         <v>660</v>
       </c>
-      <c r="E74" t="s" s="27">
-        <v>651</v>
+      <c r="E74" t="s">
+        <v>697</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
@@ -9848,8 +9854,8 @@
       <c r="D75" t="s" s="27">
         <v>662</v>
       </c>
-      <c r="E75" t="s" s="27">
-        <v>663</v>
+      <c r="E75" t="s">
+        <v>697</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>

--- a/MavenFramework/Clinic.xlsx
+++ b/MavenFramework/Clinic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="516">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/MavenFramework/Clinic.xlsx
+++ b/MavenFramework/Clinic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="536">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/MavenFramework/Clinic.xlsx
+++ b/MavenFramework/Clinic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="616">
   <si>
     <t>Test Case ID</t>
   </si>

--- a/MavenFramework/Clinic.xlsx
+++ b/MavenFramework/Clinic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="699" count="709">
   <si>
     <t>Test Case ID</t>
   </si>
